--- a/data/trans_bre/P25_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -619,15 +635,25 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -670,6 +696,16 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 0,0</t>
+          <t>-10,33; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 7,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>177,07%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,7</t>
+          <t>-8,04; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,73</t>
+          <t>-7,73; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,93; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,72</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,35</t>
+          <t>-6,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-78,45%</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-73,94%</t>
+          <t>-87,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-76,48%</t>
+          <t>-86,63%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-87,04%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-89,58%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -2,43</t>
+          <t>-15,03; -1,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -0,98</t>
+          <t>-13,13; -1,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,86; -2,09</t>
+          <t>-14,59; -1,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-95,43; -28,37</t>
+          <t>-17,79; -3,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-94,08; -0,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-94,69; -13,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -9,98</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,55%</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>-3,82%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-10,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-33,89%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 7,49</t>
+          <t>-8,17; 11,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 8,35</t>
+          <t>-10,51; 10,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 12,33</t>
+          <t>-11,86; 11,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-63,07; 105,57</t>
+          <t>-19,9; 7,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-58,29; 130,06</t>
+          <t>-79,67; 337,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,96; 137,15</t>
+          <t>-75,89; 220,98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-80,2; 178,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-79,11; 75,92</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,35</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-44,22%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,56%</t>
+          <t>-7,22%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13,49%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 7,81</t>
+          <t>-8,19; 26,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 0,94</t>
+          <t>-18,24; 14,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 8,89</t>
+          <t>-12,64; 20,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 38,78</t>
+          <t>-17,36; 17,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,45; 4,61</t>
+          <t>-41,42; 409,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,09; 45,47</t>
+          <t>-68,33; 169,75</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-56,02; 298,02</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-63,68; 217,24</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-25,77%</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-30,91%</t>
+          <t>-19,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>-38,44%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-25,3%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-25,35%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,78</t>
+          <t>-4,13; 2,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 0,46</t>
+          <t>-4,93; 0,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,48</t>
+          <t>-4,32; 1,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 12,34</t>
+          <t>-5,99; 2,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-58,54; 7,24</t>
+          <t>-60,64; 61,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 48,14</t>
+          <t>-70,26; 22,88</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-62,04; 54,01</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-58,66; 41,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,131 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,33; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 7,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.443764440590073</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2471087031393501</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="6" t="n">
+        <v>0.1891912289926284</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.586712666609813</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="n">
+        <v>-2.989312634432934</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,04; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,73; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 0,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>6.448907820368717</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +759,165 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-7,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,58</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-6,69</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-9,66</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-87,89%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-86,63%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-87,04%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-89,58%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.409653605007454</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.319949819523577</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.469327680347749</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-15,03; -1,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-13,13; -1,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-14,59; -1,35</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-17,79; -3,49</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -9,98</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>-7.370862235894991</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.003385175101387</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.647644253192438</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,49</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,95%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-3,82%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-10,15%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-33,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 11,13</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,51; 10,35</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,86; 11,48</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-19,9; 7,55</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-79,67; 337,04</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-75,89; 220,98</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-80,2; 178,12</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-79,11; 75,92</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-6.69518170147588</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.802541717326435</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-6.686979572200221</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-9.584633729506663</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.8802318183247096</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.8811060914026987</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.8725062271619296</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.9017178897516199</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8,41</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>55,3%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-7,22%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>26,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-13.79548862612171</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.39141997761036</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-14.83857860689294</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-17.79090259701025</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 26,43</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,24; 14,13</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; 20,55</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-17,36; 17,99</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-41,42; 409,65</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-68,33; 169,75</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-56,02; 298,02</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-63,68; 217,24</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.849141661818293</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-1.194867878237943</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-1.432811240127287</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-3.582458665922693</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>-0.1814509494491865</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +925,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-19,05%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-38,44%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-25,3%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-25,35%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.102928604671692</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.0873856330377426</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.675917576736848</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-5.572715245808049</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.1608168351085132</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.0095046287745614</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.06286099780805873</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.3060833649493647</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 2,09</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 0,72</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 1,63</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; 2,26</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-60,64; 61,47</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-70,26; 22,88</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-62,04; 54,01</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-58,66; 41,43</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.409526066157151</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.03821324463332</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-11.07877405410006</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-18.33508197382359</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.7638265455124826</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.7546432248572579</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.7978969302970121</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.7811135718093128</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.23699301838797</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.57314857130403</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>11.29105497170566</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>8.2121150403568</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>3.854849001405733</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>2.438260724842626</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.874348561065952</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.8286154427653916</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>9.787520463811065</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.02912393794535229</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>4.679651949547911</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>5.311977095060902</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.7103576304016844</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.001684458664732163</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.3077295119198383</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.3310286265507563</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-5.928851786884394</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-17.1477410103281</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-12.60370080487109</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-13.89930137249707</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.3586456599084011</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.6624331529577163</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.5874554910597799</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.5760006775804893</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>28.44931660415681</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>16.89039792864246</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>22.63687562489725</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>22.36836173660015</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>4.635577799986574</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.976950653628514</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>3.086969983880091</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>2.901437767918834</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.8478518983941579</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.82085948209176</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.143913591114555</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-1.354668842738765</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.1798329885668852</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.3570443213446943</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.2247277465476248</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.1868619718346226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.823816848664102</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.65750766053657</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.89701791744768</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-5.254973602216212</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.6057326228382091</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.6881925464049794</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.5966470157629344</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.5604347991413114</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.903129976327551</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9736730128381885</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.968936896597055</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2.969796761713488</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.6129440635696563</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.3053428605789531</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.6765691801241331</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.5376722595579959</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1223,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
